--- a/AKRO Model.xlsx
+++ b/AKRO Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806B57FE-602B-5148-BD43-A21995882E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B2C65F-4BDE-4842-A5B3-80A907FC6743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{E80DDADD-73BD-ED47-949F-687C0726334C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Akero Therapeutics</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Short-term marketable securities</t>
   </si>
   <si>
-    <t>Prtepaid expenses &amp; other current assets</t>
-  </si>
-  <si>
     <t>Total current asserts</t>
   </si>
   <si>
@@ -169,6 +166,12 @@
   </si>
   <si>
     <t>Total liabilities &amp; stockholders' equity</t>
+  </si>
+  <si>
+    <t>Prepaid expenses &amp; other current assets</t>
+  </si>
+  <si>
+    <t>Check</t>
   </si>
 </sst>
 </file>
@@ -572,13 +575,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C36ACC-7CDA-F649-A2FA-810DE7494ECB}">
-  <dimension ref="A1:S146"/>
+  <dimension ref="A1:S147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A147" sqref="A147"/>
+      <selection pane="bottomRight" activeCell="S146" sqref="S146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -652,114 +655,186 @@
         <v>44926</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="R127">
+        <v>150483</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="R128">
+        <v>37775</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>43</v>
+      </c>
+      <c r="R129">
+        <v>5324</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+      <c r="R130">
+        <f>R127+R128+R129</f>
+        <v>193582</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+      <c r="R131">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+      <c r="R132">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+      <c r="R133">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+      <c r="R134">
+        <f>R130+R131+R132+R133</f>
+        <v>195548</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+      <c r="R136">
+        <v>6706</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+      <c r="R137">
+        <v>18422</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+      <c r="R138">
+        <f>R136+R137</f>
+        <v>25128</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+      <c r="R139">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="R140">
+        <f>R139+R138</f>
+        <v>26439</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
+        <v>37</v>
+      </c>
+      <c r="R141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+      <c r="R142">
+        <v>479436</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+      <c r="R143">
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+      <c r="R144">
+        <v>-310304</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+      <c r="R145">
+        <f>R141+R142+R143+R144</f>
+        <v>169109</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>43</v>
+      <c r="R146">
+        <f>R140+R145</f>
+        <v>195548</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>44</v>
+      </c>
+      <c r="R147">
+        <f>R146-R134</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/AKRO Model.xlsx
+++ b/AKRO Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B2C65F-4BDE-4842-A5B3-80A907FC6743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8225865C-CCE1-E642-BBB8-0C7CCCF91137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{E80DDADD-73BD-ED47-949F-687C0726334C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>Akero Therapeutics</t>
   </si>
@@ -135,12 +135,6 @@
     <t>Accrued expenses &amp; other current liabilities</t>
   </si>
   <si>
-    <t>Total current libailities</t>
-  </si>
-  <si>
-    <t>Noncurrent operating lease libailities</t>
-  </si>
-  <si>
     <t>Total liabilities</t>
   </si>
   <si>
@@ -172,13 +166,88 @@
   </si>
   <si>
     <t>Check</t>
+  </si>
+  <si>
+    <t>P&amp;L GAAP</t>
+  </si>
+  <si>
+    <t>Operating expenses</t>
+  </si>
+  <si>
+    <t>General &amp; administrative</t>
+  </si>
+  <si>
+    <t>Total operating expenses</t>
+  </si>
+  <si>
+    <t>Other income</t>
+  </si>
+  <si>
+    <t>EBT</t>
+  </si>
+  <si>
+    <t>EBIT</t>
+  </si>
+  <si>
+    <t>Tax provision</t>
+  </si>
+  <si>
+    <t>Reported net income</t>
+  </si>
+  <si>
+    <t>Research &amp; development</t>
+  </si>
+  <si>
+    <t>FY2019A</t>
+  </si>
+  <si>
+    <t>Noncurrent operating lease liabilities</t>
+  </si>
+  <si>
+    <t>Noncurrent loan payable</t>
+  </si>
+  <si>
+    <t>Warrant liability</t>
+  </si>
+  <si>
+    <t>Total current liabilities</t>
+  </si>
+  <si>
+    <t>Consolidated Statement of Cash Flows</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Adjustments to net income to CFFO</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Non-cash lease expense</t>
+  </si>
+  <si>
+    <t>Net amortization of premiums &amp; discounts on short-investments</t>
+  </si>
+  <si>
+    <t>Amortization of debt issuance costs &amp; discount</t>
+  </si>
+  <si>
+    <t>Fair value change in warrant liability</t>
+  </si>
+  <si>
+    <t>Unrealized foreign exchange gain &amp; loss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -190,6 +259,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -215,10 +291,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,76 +652,85 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C36ACC-7CDA-F649-A2FA-810DE7494ECB}">
-  <dimension ref="A1:S147"/>
+  <dimension ref="A1:S150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B134" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S146" sqref="S146"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="P2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P3" s="1">
+        <v>43830</v>
+      </c>
       <c r="Q3" s="1">
         <v>44196</v>
       </c>
@@ -655,185 +741,499 @@
         <v>44926</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="3">
+        <v>37046</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>64916</v>
+      </c>
+      <c r="R7" s="3">
+        <v>81759</v>
+      </c>
+      <c r="S7" s="3">
+        <v>85284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="3">
+        <v>8605</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>15238</v>
+      </c>
+      <c r="R8" s="3">
+        <v>19127</v>
+      </c>
+      <c r="S8" s="3">
+        <v>29872</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9">
+        <f>P8+P7</f>
+        <v>45651</v>
+      </c>
+      <c r="Q9">
+        <f>Q8+Q7</f>
+        <v>80154</v>
+      </c>
+      <c r="R9">
+        <f>R8+R7</f>
+        <v>100886</v>
+      </c>
+      <c r="S9">
+        <f>S8+S7</f>
+        <v>115156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="3">
+        <v>1896</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>947</v>
+      </c>
+      <c r="R11" s="3">
+        <v>109</v>
+      </c>
+      <c r="S11" s="3">
+        <v>3862</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="3">
+        <v>-43755</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>-79207</v>
+      </c>
+      <c r="R14" s="3">
+        <v>-100777</v>
+      </c>
+      <c r="S14" s="3">
+        <v>-112033</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q128" s="3">
+        <v>187242</v>
+      </c>
+      <c r="R128" s="3">
+        <v>150483</v>
+      </c>
+      <c r="S128" s="3">
+        <v>249773</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q129" s="3">
+        <v>81145</v>
+      </c>
+      <c r="R129" s="3">
+        <v>37775</v>
+      </c>
+      <c r="S129" s="3">
+        <v>101676</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q130" s="3">
+        <v>2958</v>
+      </c>
+      <c r="R130" s="3">
+        <v>5324</v>
+      </c>
+      <c r="S130" s="3">
+        <v>3724</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q131">
+        <f>Q128+Q129+Q130</f>
+        <v>271345</v>
+      </c>
+      <c r="R131">
+        <f>R128+R129+R130</f>
+        <v>193582</v>
+      </c>
+      <c r="S131">
+        <f>S128+S129+S130</f>
+        <v>355173</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q132" s="3">
+        <v>131</v>
+      </c>
+      <c r="R132" s="3">
+        <v>90</v>
+      </c>
+      <c r="S132" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q133" s="3">
+        <v>1662</v>
+      </c>
+      <c r="R133" s="3">
+        <v>1459</v>
+      </c>
+      <c r="S133" s="3">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q134" s="3">
+        <v>201</v>
+      </c>
+      <c r="R134" s="3">
+        <v>417</v>
+      </c>
+      <c r="S134" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q135">
+        <f>Q131+Q132+Q133+Q134</f>
+        <v>273339</v>
+      </c>
+      <c r="R135">
+        <f>R131+R132+R133+R134</f>
+        <v>195548</v>
+      </c>
+      <c r="S135">
+        <f>S131+S132+S133+S134</f>
+        <v>356570</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q137" s="3">
+        <v>3428</v>
+      </c>
+      <c r="R137" s="3">
+        <v>6706</v>
+      </c>
+      <c r="S137" s="3">
+        <v>7968</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q138" s="3">
+        <v>9683</v>
+      </c>
+      <c r="R138" s="3">
+        <v>18422</v>
+      </c>
+      <c r="S138" s="3">
+        <v>11115</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q139">
+        <f>Q137+Q138</f>
+        <v>13111</v>
+      </c>
+      <c r="R139">
+        <f>R137+R138</f>
+        <v>25128</v>
+      </c>
+      <c r="S139">
+        <f>S137+S138</f>
+        <v>19083</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>55</v>
+      </c>
+      <c r="S140" s="3">
+        <v>9541</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>56</v>
+      </c>
+      <c r="S141" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q142" s="3">
+        <v>1516</v>
+      </c>
+      <c r="R142" s="3">
+        <v>1311</v>
+      </c>
+      <c r="S142" s="3">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q143">
+        <f>Q142+Q139+Q140+Q141</f>
+        <v>14627</v>
+      </c>
+      <c r="R143">
+        <f>R142+R139+R140+R141</f>
+        <v>26439</v>
+      </c>
+      <c r="S143">
+        <f>S142+S139+S140+S141</f>
+        <v>30008</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q144" s="3">
+        <v>4</v>
+      </c>
+      <c r="R144" s="3">
+        <v>4</v>
+      </c>
+      <c r="S144" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>23</v>
-      </c>
-      <c r="R127">
-        <v>150483</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>24</v>
-      </c>
-      <c r="R128">
-        <v>37775</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>43</v>
-      </c>
-      <c r="R129">
-        <v>5324</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>25</v>
-      </c>
-      <c r="R130">
-        <f>R127+R128+R129</f>
-        <v>193582</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>26</v>
-      </c>
-      <c r="R131">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>27</v>
-      </c>
-      <c r="R132">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>28</v>
-      </c>
-      <c r="R133">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>29</v>
-      </c>
-      <c r="R134">
-        <f>R130+R131+R132+R133</f>
+      <c r="Q145" s="3">
+        <v>468238</v>
+      </c>
+      <c r="R145" s="3">
+        <v>479436</v>
+      </c>
+      <c r="S145" s="3">
+        <v>748857</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q146" s="3">
+        <v>-3</v>
+      </c>
+      <c r="R146" s="3">
+        <v>-27</v>
+      </c>
+      <c r="S146" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q147" s="3">
+        <v>-209527</v>
+      </c>
+      <c r="R147" s="3">
+        <v>-310304</v>
+      </c>
+      <c r="S147" s="3">
+        <v>-422337</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q148">
+        <f>Q144+Q145+Q146+Q147</f>
+        <v>258712</v>
+      </c>
+      <c r="R148">
+        <f>R144+R145+R146+R147</f>
+        <v>169109</v>
+      </c>
+      <c r="S148">
+        <f>S144+S145+S146+S147</f>
+        <v>326562</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q149">
+        <f>Q143+Q148</f>
+        <v>273339</v>
+      </c>
+      <c r="R149">
+        <f>R143+R148</f>
         <v>195548</v>
       </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>30</v>
-      </c>
-      <c r="R136">
-        <v>6706</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>31</v>
-      </c>
-      <c r="R137">
-        <v>18422</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>32</v>
-      </c>
-      <c r="R138">
-        <f>R136+R137</f>
-        <v>25128</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>33</v>
-      </c>
-      <c r="R139">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>34</v>
-      </c>
-      <c r="R140">
-        <f>R139+R138</f>
-        <v>26439</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>37</v>
-      </c>
-      <c r="R141">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>38</v>
-      </c>
-      <c r="R142">
-        <v>479436</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>39</v>
-      </c>
-      <c r="R143">
-        <v>-27</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>40</v>
-      </c>
-      <c r="R144">
-        <v>-310304</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>41</v>
-      </c>
-      <c r="R145">
-        <f>R141+R142+R143+R144</f>
-        <v>169109</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+      <c r="S149">
+        <f>S143+S148</f>
+        <v>356570</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>42</v>
       </c>
-      <c r="R146">
-        <f>R140+R145</f>
-        <v>195548</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>44</v>
-      </c>
-      <c r="R147">
-        <f>R146-R134</f>
+      <c r="Q150">
+        <f>Q149-Q135</f>
+        <v>0</v>
+      </c>
+      <c r="R150">
+        <f>R149-R135</f>
+        <v>0</v>
+      </c>
+      <c r="S150">
+        <f>S149-S135</f>
         <v>0</v>
       </c>
     </row>

--- a/AKRO Model.xlsx
+++ b/AKRO Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8225865C-CCE1-E642-BBB8-0C7CCCF91137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7F358D-CD46-2643-8C96-20DABFF1B362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{E80DDADD-73BD-ED47-949F-687C0726334C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
   <si>
     <t>Akero Therapeutics</t>
   </si>
@@ -241,6 +241,39 @@
   </si>
   <si>
     <t>Unrealized foreign exchange gain &amp; loss</t>
+  </si>
+  <si>
+    <t>Changes in operating assets &amp; liabilities</t>
+  </si>
+  <si>
+    <t>Prepaid expenses &amp; other assets</t>
+  </si>
+  <si>
+    <t>Accounts payable</t>
+  </si>
+  <si>
+    <t>Operating lease liabilities</t>
+  </si>
+  <si>
+    <t>Net cash used in operating activities</t>
+  </si>
+  <si>
+    <t>Cash flows from investing activities</t>
+  </si>
+  <si>
+    <t>Purchase of short-term marketable securities</t>
+  </si>
+  <si>
+    <t>Proceeds from issuance  of common stock under ESPP</t>
+  </si>
+  <si>
+    <t>Proceeds from issuance of common stock - Private offering</t>
+  </si>
+  <si>
+    <t>Follow-on public offering, net of costs</t>
+  </si>
+  <si>
+    <t>Proceeds from loans payable</t>
   </si>
 </sst>
 </file>
@@ -655,10 +688,10 @@
   <dimension ref="A1:S150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="K30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -905,6 +938,66 @@
         <v>67</v>
       </c>
     </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>22</v>
